--- a/stock_predictor_ai/data/cleaned/LULU.xlsx
+++ b/stock_predictor_ai/data/cleaned/LULU.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4511"/>
+  <dimension ref="A1:F4512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90669,6 +90669,26 @@
         <v>459824</v>
       </c>
     </row>
+    <row r="4512">
+      <c r="A4512" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B4512" t="n">
+        <v>237.4199981689453</v>
+      </c>
+      <c r="C4512" t="n">
+        <v>238.5500030517578</v>
+      </c>
+      <c r="D4512" t="n">
+        <v>235.2100067138672</v>
+      </c>
+      <c r="E4512" t="n">
+        <v>238.5500030517578</v>
+      </c>
+      <c r="F4512" t="n">
+        <v>331883</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/LULU.xlsx
+++ b/stock_predictor_ai/data/cleaned/LULU.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4512"/>
+  <dimension ref="A1:F4513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90689,6 +90689,26 @@
         <v>331883</v>
       </c>
     </row>
+    <row r="4513">
+      <c r="A4513" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B4513" t="n">
+        <v>222.1900024414062</v>
+      </c>
+      <c r="C4513" t="n">
+        <v>230.5399932861328</v>
+      </c>
+      <c r="D4513" t="n">
+        <v>222.0599975585938</v>
+      </c>
+      <c r="E4513" t="n">
+        <v>229.1900024414062</v>
+      </c>
+      <c r="F4513" t="n">
+        <v>4762200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/LULU.xlsx
+++ b/stock_predictor_ai/data/cleaned/LULU.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4513"/>
+  <dimension ref="A1:F4514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90709,6 +90709,26 @@
         <v>4762200</v>
       </c>
     </row>
+    <row r="4514">
+      <c r="A4514" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B4514" t="n">
+        <v>226.7550048828125</v>
+      </c>
+      <c r="C4514" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="D4514" t="n">
+        <v>225.5899963378906</v>
+      </c>
+      <c r="E4514" t="n">
+        <v>230</v>
+      </c>
+      <c r="F4514" t="n">
+        <v>522918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/LULU.xlsx
+++ b/stock_predictor_ai/data/cleaned/LULU.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4514"/>
+  <dimension ref="A1:F4515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90729,6 +90729,26 @@
         <v>522918</v>
       </c>
     </row>
+    <row r="4515">
+      <c r="A4515" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B4515" t="n">
+        <v>199.1100006103516</v>
+      </c>
+      <c r="C4515" t="n">
+        <v>201.2700042724609</v>
+      </c>
+      <c r="D4515" t="n">
+        <v>195.5899963378906</v>
+      </c>
+      <c r="E4515" t="n">
+        <v>199.4400024414062</v>
+      </c>
+      <c r="F4515" t="n">
+        <v>3011196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/LULU.xlsx
+++ b/stock_predictor_ai/data/cleaned/LULU.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4515"/>
+  <dimension ref="A1:F4510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90649,106 +90651,6 @@
         <v>6200600</v>
       </c>
     </row>
-    <row r="4511">
-      <c r="A4511" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B4511" t="n">
-        <v>247.3500061035156</v>
-      </c>
-      <c r="C4511" t="n">
-        <v>249.9700012207031</v>
-      </c>
-      <c r="D4511" t="n">
-        <v>246</v>
-      </c>
-      <c r="E4511" t="n">
-        <v>247.3699951171875</v>
-      </c>
-      <c r="F4511" t="n">
-        <v>459824</v>
-      </c>
-    </row>
-    <row r="4512">
-      <c r="A4512" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B4512" t="n">
-        <v>237.4199981689453</v>
-      </c>
-      <c r="C4512" t="n">
-        <v>238.5500030517578</v>
-      </c>
-      <c r="D4512" t="n">
-        <v>235.2100067138672</v>
-      </c>
-      <c r="E4512" t="n">
-        <v>238.5500030517578</v>
-      </c>
-      <c r="F4512" t="n">
-        <v>331883</v>
-      </c>
-    </row>
-    <row r="4513">
-      <c r="A4513" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B4513" t="n">
-        <v>222.1900024414062</v>
-      </c>
-      <c r="C4513" t="n">
-        <v>230.5399932861328</v>
-      </c>
-      <c r="D4513" t="n">
-        <v>222.0599975585938</v>
-      </c>
-      <c r="E4513" t="n">
-        <v>229.1900024414062</v>
-      </c>
-      <c r="F4513" t="n">
-        <v>4762200</v>
-      </c>
-    </row>
-    <row r="4514">
-      <c r="A4514" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B4514" t="n">
-        <v>226.7550048828125</v>
-      </c>
-      <c r="C4514" t="n">
-        <v>230.5</v>
-      </c>
-      <c r="D4514" t="n">
-        <v>225.5899963378906</v>
-      </c>
-      <c r="E4514" t="n">
-        <v>230</v>
-      </c>
-      <c r="F4514" t="n">
-        <v>522918</v>
-      </c>
-    </row>
-    <row r="4515">
-      <c r="A4515" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B4515" t="n">
-        <v>199.1100006103516</v>
-      </c>
-      <c r="C4515" t="n">
-        <v>201.2700042724609</v>
-      </c>
-      <c r="D4515" t="n">
-        <v>195.5899963378906</v>
-      </c>
-      <c r="E4515" t="n">
-        <v>199.4400024414062</v>
-      </c>
-      <c r="F4515" t="n">
-        <v>3011196</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
